--- a/projects.xlsx
+++ b/projects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haider\pythonProjects\towncoder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haider\pythonProjects\haiderkhalil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>images/datahub.jpg</t>
   </si>
   <si>
     <t>Phone Directory for ECP</t>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Mobile App</t>
+  </si>
+  <si>
+    <t>S.No</t>
   </si>
 </sst>
 </file>
@@ -459,92 +459,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="59.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="52" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="10160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="135">
   <si>
     <t>Project Type</t>
   </si>
@@ -63,9 +63,95 @@
     <t>Phone Directory for ECP</t>
   </si>
   <si>
+    <t>ECP Communicator</t>
+  </si>
+  <si>
+    <t>Android+iOS app developed in Flutter and Firebase as internal communication tool for Election Commission of Pakistan</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>Pak Elections</t>
+  </si>
+  <si>
+    <t>Android+iOS app for instant access to data of all general elections held in Pakistan.</t>
+  </si>
+  <si>
     <r>
-      <t>1.</t>
+      <t>Result from Polling Stations Using Smart Phones (RPSSP)</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Vote </t>
+  </si>
+  <si>
+    <t>Used for Electronic Voting using Android tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Election Results Client </t>
+  </si>
+  <si>
+    <t>(Android app): In this app the user enters the votes obtained by each contesting candidate and taps on the SEND button to send the result to the main server of the election commission.</t>
+  </si>
+  <si>
+    <t>TrackBag</t>
+  </si>
+  <si>
+    <t>TrackBag app is used to track the location of the polling material to The and from the polling station. It uses iBeacon for tracking. The iBeacon is placed inside the bag of the polling material which communicates with the TrackBag Android app. The mobile app sends its location to the Web Server at predefined intervals. App was developed using Flutter and Firebase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Light LED Torch Shake </t>
+  </si>
+  <si>
+    <t>Flashlight LED Torch Shake is the fastest, brightest and the first coolest LED Flashlight app in the market in which you can turn the flashlight on and off by just shaking your phone.</t>
+  </si>
+  <si>
+    <r>
+      <t>Put on Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This app reports problems relating to various categories and show it on the map along with photo. If the user notices any problem she describes the problem, take its photo and send it to the webserver. Problems are displayed on the webserver on map along with photo. App was developed in Android Studio with PHP and MySQL on Server side. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urdu Quran </t>
+  </si>
+  <si>
+    <t>Downloads crossed 41,000. Overall rating 4.6. Available on Google Play Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukhtasar Shahih Bukhari Urdu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android App: Downloads crossed 500K. Overall rating 4.7. This app is reached the ranked of 45 in Top Free Apps of Google Play in the category “Books and Reference”. Google Play link </t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/apps/details?id=haider.bukhariurdu</t>
+  </si>
+  <si>
+    <t>Android SMS Survey App</t>
+  </si>
+  <si>
+    <t>Android SMS Gateway App</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -73,7 +159,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -81,27 +167,365 @@
         <color theme="1"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>Contact list of officers of Election Commission of Pakistan (name, designation, place of posting, cell no., landline no) across Pakistan. Developed in Flutter and Firebase.</t>
+      <t>Android App for Vehicle GPS Trackers</t>
     </r>
   </si>
   <si>
-    <t>ECP Communicator</t>
-  </si>
-  <si>
-    <t>Android+iOS app developed in Flutter and Firebase as internal communication tool for Election Commission of Pakistan</t>
-  </si>
-  <si>
-    <t>Mobile App</t>
+    <t>Kid Surveillance Application for Android devices</t>
+  </si>
+  <si>
+    <t>Android SoS app</t>
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>https://pecbln.streamlit.app/</t>
+  </si>
+  <si>
+    <t>Python streamlit app that fetches data from Google Sheets and present in the form of user-friendly dashboard.</t>
+  </si>
+  <si>
+    <t>General Elections 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ge2018.streamlit.app/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Calculator </t>
+  </si>
+  <si>
+    <t>https://areacal.streamlit.app/</t>
+  </si>
+  <si>
+    <t>mediawall.streamlit.app/</t>
+  </si>
+  <si>
+    <t>Media Wall app to display multiple YouTube channels on single screen. Developed in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area/Marla Calculator app developed in Python </t>
+  </si>
+  <si>
+    <t>areacal.streamlit.app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edtube.onrender.com </t>
+  </si>
+  <si>
+    <t>Educational app for students. Developed in Python Django.</t>
+  </si>
+  <si>
+    <t>Quizify.pk</t>
+  </si>
+  <si>
+    <t>Online self-assessment app developed for FSc and MBBS students. Developed in Python Django</t>
+  </si>
+  <si>
+    <t>textfromtube.com</t>
+  </si>
+  <si>
+    <t>Tool developed in Python to extract transcript of YouTube video.</t>
+  </si>
+  <si>
+    <t>Koracademy.com</t>
+  </si>
+  <si>
+    <t>KorAcademys’ goal is to reach out to students who don't have access to quality education material</t>
+  </si>
+  <si>
+    <t>Electionshub.org</t>
+  </si>
+  <si>
+    <t>A website developed in Drupal to provide information about elections in Pakistan</t>
+  </si>
+  <si>
+    <t>Pineapp for displaying problems reported on map along with photo</t>
+  </si>
+  <si>
+    <t>Collection of Election Results from Polling Stations via SMS</t>
+  </si>
+  <si>
+    <t>Displaying Polling Stations in Google Maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YouTube video analyzer: AI app that reads a YouTube video, analyze it and give its summary in few lines. It is developed in Python. </t>
+  </si>
+  <si>
+    <t>Accounting Application for Ahbab Group of Engineering Services (AGES)</t>
+  </si>
+  <si>
+    <t>General Elections Management Information System for Provincial Election Commission Khyber Pakhtunkhwa</t>
+  </si>
+  <si>
+    <t>Assets Management System for Provincial Election Commission Khyber Pakhtunkhwa</t>
+  </si>
+  <si>
+    <t>Assets Management System for Essential Institutional Reforms Operationalization Program (EIROP) NWFP, UNDP</t>
+  </si>
+  <si>
+    <t>Online Data Collection System for Works &amp; Services Department, Government of NWFP, Pakistan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Water Supply and Sanitation Survey System for UNICEF Peshawar</t>
+    </r>
+  </si>
+  <si>
+    <t>Microfinance Database for DACAAR (Danish Committee for Aid to Afghan Refugees), Kabul, Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monitoring and Evaluation database for AfghanAid UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Online Testing System</t>
+  </si>
+  <si>
+    <t>office of Provincial Election Commissioner Khyber Pakhtunkhwa (developed in Drupal)</t>
+  </si>
+  <si>
+    <t>Personnel, payroll and salaries costing system for AfghanAid, Peshawar</t>
+  </si>
+  <si>
+    <t>Food for Education” Database for Norwegian Afghanistan Committee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>MIS for Water Supply Units in Afghanistan for DACAAR, Peshawar</t>
+    </r>
+  </si>
+  <si>
+    <t>Health Information System for Norwegian Afghanistan Committee (NAC)</t>
+  </si>
+  <si>
+    <t>Scheme Information System for Communication &amp; Works (C&amp;W) Department, Pakistan</t>
+  </si>
+  <si>
+    <t>Crops database for DACAAR, Peshawar, Pakistan</t>
+  </si>
+  <si>
+    <t>Personnel Information for System for Comprehensive Disabled Afghans Programme (CDAP), United Nations Development Program</t>
+  </si>
+  <si>
+    <t>TB/Malnutrition Survey Analysis Database for Swedish Committee for Afghanistan (SCA)</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project Monitoring System for DACAAR</t>
+  </si>
+  <si>
+    <t>Integrated Agriculture Development Database for DACAAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pakistan Provincial Road Management Software for Finroad (Finland)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rural Appraisal Database for DACAAR</t>
+  </si>
+  <si>
+    <t>Personnel Information System for Communication &amp; works Department, Pakistan</t>
+  </si>
+  <si>
+    <t>Water Billing Software for Water and Sanitation Unit Chitral, Pakistan</t>
+  </si>
+  <si>
+    <t>Water Billing Software for Public Health Engineering Department (PHED) government of NWFP, Peshawar, Pakistan</t>
+  </si>
+  <si>
+    <t>Payroll Software for Family Health Project (World Bank), Health Department Government of NWFP, Pakistan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Legislative Members System for Provincial Assembly NWFP, Pakistan</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Training Information System for Family Health Project (World Bank), Health Department Government of NWFP, Pakistan</t>
+  </si>
+  <si>
+    <t>Customs Revenue Software for Office of Assistant Collector Customs Mardan, Government of Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIS for Hayat Shaheed Teaching Hospital Peshawar</t>
+  </si>
+  <si>
+    <t>Contact list of officers of Election Commission of Pakistan (name, designation, place of posting, cell no., landline no) across Pakistan. Developed in Flutter and Firebase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android App: RPSSP is a system for collection of election results from the polling stations in Pakistan. The system has been successfully pilot tested in elections in Pakistan by Election Commission of Pakistan.
+Android app for General Elections 2013, titled “Pak Elections 2013”. Placed on Google Play Store and got a rating of 4.7/5. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Django in 2 Hours: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Learn Python Django Web Framework in just 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flutter and Firebase: Learn by developing Contacts app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a Real Estate Website with Drupal: A Beginner's Course </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build an OpenAI + LangChain App in Python: YouTube Analyzer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> udemy.com</t>
+  </si>
+  <si>
+    <t>Health Personnel Training Database for Family Health Project (World Bank) Health Department, Government of NWFP</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>ecp_communicator.png</t>
+  </si>
+  <si>
+    <t>flash_light.png</t>
+  </si>
+  <si>
+    <t>default.jpg</t>
+  </si>
+  <si>
+    <t>bukhari.png</t>
+  </si>
+  <si>
+    <t>drupal.jpg</t>
+  </si>
+  <si>
+    <t>SMS Gateway</t>
+  </si>
+  <si>
+    <t>SMS Survey</t>
+  </si>
+  <si>
+    <t>GPS Tracker</t>
+  </si>
+  <si>
+    <t>Kid Surveillance</t>
+  </si>
+  <si>
+    <t>Area Calculator</t>
+  </si>
+  <si>
+    <t>SoS App</t>
+  </si>
+  <si>
+    <t>PEC Balochistan Dashboard</t>
+  </si>
+  <si>
+    <t>General Elections 2018 - Dashboard</t>
+  </si>
+  <si>
+    <t>Marla Calculator</t>
+  </si>
+  <si>
+    <t>Media Wall</t>
+  </si>
+  <si>
+    <t>EdTube</t>
+  </si>
+  <si>
+    <t>Quizify</t>
+  </si>
+  <si>
+    <t>YouTube Transcriptor</t>
+  </si>
+  <si>
+    <t>YouTube Video Analyzer</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>General Elections 2018 - RO Portal</t>
+  </si>
+  <si>
+    <t>Data Hub - KP</t>
+  </si>
+  <si>
+    <t>kpk.ecp.gov.pk</t>
+  </si>
+  <si>
+    <t>PineApp</t>
+  </si>
+  <si>
+    <t>Election Results via SMS</t>
+  </si>
+  <si>
+    <t>Polling Stations on Google Maps</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>GE MIS</t>
+  </si>
+  <si>
+    <t>AMIS</t>
+  </si>
+  <si>
+    <t>AMIS for UNDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +570,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,14 +610,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,96 +951,1159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="59.81640625" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E5" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="19">
+        <v>22</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="19">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>26</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <v>27</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="19">
+        <v>28</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="19">
+        <v>29</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="19">
+        <v>30</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="19">
+        <v>31</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="19">
+        <v>32</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>33</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="19">
+        <v>34</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>16</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="19">
+        <v>35</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>36</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
+        <v>37</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>38</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
+        <v>39</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>40</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>41</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>42</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="19">
+        <v>43</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="19">
+        <v>44</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>45</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="19">
+        <v>46</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="19">
+        <v>47</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A46" s="19">
+        <v>48</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="19">
+        <v>49</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="19">
+        <v>50</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="19">
+        <v>51</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="19">
+        <v>52</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="19">
+        <v>53</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="19">
+        <v>54</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="19">
+        <v>55</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="19">
+        <v>56</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A55" s="19">
+        <v>57</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="19">
+        <v>58</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="19">
+        <v>59</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="19">
+        <v>60</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="19">
+        <v>61</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="19">
+        <v>62</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="19">
+        <v>63</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="19">
+        <v>64</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="19">
+        <v>65</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>66</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="19">
+        <v>67</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="19">
+        <v>68</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="19">
+        <v>69</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F19" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F21" r:id="rId5"/>
+    <hyperlink ref="F22" r:id="rId6" display="https://mediawall.streamlit.app/"/>
+    <hyperlink ref="F23" r:id="rId7" display="https://areacal.streamlit.app/"/>
+    <hyperlink ref="F24" r:id="rId8" display="https://edtube.onrender.com/"/>
+    <hyperlink ref="F25" r:id="rId9" display="http://quizify.pk/"/>
+    <hyperlink ref="F26" r:id="rId10" display="http://textfromtube.com/"/>
+    <hyperlink ref="F28" r:id="rId11" display="http://koracademy.com/"/>
+    <hyperlink ref="F29" r:id="rId12" display="http://electionshub.org/"/>
+    <hyperlink ref="F30" r:id="rId13" display="http://kpk.ecp.gov.pk/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>